--- a/SchedulingData/dynamic14/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,169 +466,169 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.48</v>
+        <v>61.6</v>
       </c>
       <c r="E2" t="n">
-        <v>26.152</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.76</v>
+        <v>48.86</v>
       </c>
       <c r="E3" t="n">
-        <v>27.624</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="D4" t="n">
-        <v>68.40000000000001</v>
+        <v>100.24</v>
       </c>
       <c r="E4" t="n">
-        <v>25.84</v>
+        <v>22.296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50.48</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>113.18</v>
+        <v>49.5</v>
       </c>
       <c r="E5" t="n">
-        <v>22.512</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>61.76</v>
+        <v>52.66</v>
       </c>
       <c r="E6" t="n">
-        <v>26.524</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61.76</v>
+        <v>100.24</v>
       </c>
       <c r="D7" t="n">
-        <v>120.32</v>
+        <v>152.62</v>
       </c>
       <c r="E7" t="n">
-        <v>23.268</v>
+        <v>18.188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>113.18</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>169.38</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>20.472</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>169.38</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>236</v>
+        <v>48.3</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>236</v>
+        <v>52.66</v>
       </c>
       <c r="D10" t="n">
-        <v>292.94</v>
+        <v>105.86</v>
       </c>
       <c r="E10" t="n">
-        <v>12.856</v>
+        <v>22.724</v>
       </c>
     </row>
     <row r="11">
@@ -637,188 +637,188 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>48.86</v>
       </c>
       <c r="D11" t="n">
-        <v>62.8</v>
+        <v>104.36</v>
       </c>
       <c r="E11" t="n">
-        <v>25.92</v>
+        <v>22.884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="D12" t="n">
-        <v>71.81999999999999</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>25.968</v>
+        <v>23.624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>71.81999999999999</v>
+        <v>104.36</v>
       </c>
       <c r="D13" t="n">
-        <v>130.02</v>
+        <v>166.36</v>
       </c>
       <c r="E13" t="n">
-        <v>23.768</v>
+        <v>18.804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62.8</v>
+        <v>49.5</v>
       </c>
       <c r="D14" t="n">
-        <v>106.64</v>
+        <v>120.72</v>
       </c>
       <c r="E14" t="n">
-        <v>22.176</v>
+        <v>23.208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>68.40000000000001</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>108.68</v>
+        <v>178.02</v>
       </c>
       <c r="E15" t="n">
-        <v>22.452</v>
+        <v>21.468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>292.94</v>
+        <v>105.86</v>
       </c>
       <c r="D16" t="n">
-        <v>346.34</v>
+        <v>173.16</v>
       </c>
       <c r="E16" t="n">
-        <v>9.135999999999999</v>
+        <v>19.604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130.02</v>
+        <v>178.02</v>
       </c>
       <c r="D17" t="n">
-        <v>203.46</v>
+        <v>274.24</v>
       </c>
       <c r="E17" t="n">
-        <v>20.024</v>
+        <v>17.436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45.76</v>
+        <v>166.36</v>
       </c>
       <c r="D18" t="n">
-        <v>118.92</v>
+        <v>207.62</v>
       </c>
       <c r="E18" t="n">
-        <v>24.408</v>
+        <v>16.308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>203.46</v>
+        <v>207.62</v>
       </c>
       <c r="D19" t="n">
-        <v>239.82</v>
+        <v>271.7</v>
       </c>
       <c r="E19" t="n">
-        <v>17.528</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108.68</v>
+        <v>271.7</v>
       </c>
       <c r="D20" t="n">
-        <v>164.6</v>
+        <v>339.96</v>
       </c>
       <c r="E20" t="n">
-        <v>19.46</v>
+        <v>10.804</v>
       </c>
     </row>
     <row r="21">
@@ -827,131 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>106.64</v>
+        <v>339.96</v>
       </c>
       <c r="D21" t="n">
-        <v>153.7</v>
+        <v>401.42</v>
       </c>
       <c r="E21" t="n">
-        <v>19.58</v>
+        <v>7.788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>346.34</v>
+        <v>120.72</v>
       </c>
       <c r="D22" t="n">
-        <v>400.76</v>
+        <v>176.82</v>
       </c>
       <c r="E22" t="n">
-        <v>4.824</v>
+        <v>20.688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>120.32</v>
+        <v>173.16</v>
       </c>
       <c r="D23" t="n">
-        <v>164.1</v>
+        <v>214.32</v>
       </c>
       <c r="E23" t="n">
-        <v>20.02</v>
+        <v>16.128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>400.76</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>445.56</v>
+        <v>135.7</v>
       </c>
       <c r="E24" t="n">
-        <v>0.984</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>445.56</v>
+        <v>176.82</v>
       </c>
       <c r="D25" t="n">
-        <v>544.99</v>
+        <v>233.62</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>17.608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>239.82</v>
+        <v>135.7</v>
       </c>
       <c r="D26" t="n">
-        <v>298.62</v>
+        <v>195.2</v>
       </c>
       <c r="E26" t="n">
-        <v>14.768</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>298.62</v>
+        <v>195.2</v>
       </c>
       <c r="D27" t="n">
-        <v>359.72</v>
+        <v>250.1</v>
       </c>
       <c r="E27" t="n">
-        <v>10.288</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>153.7</v>
+        <v>401.42</v>
       </c>
       <c r="D28" t="n">
-        <v>200.7</v>
+        <v>440</v>
       </c>
       <c r="E28" t="n">
-        <v>16.5</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>118.92</v>
+        <v>274.24</v>
       </c>
       <c r="D29" t="n">
-        <v>164.92</v>
+        <v>348.36</v>
       </c>
       <c r="E29" t="n">
-        <v>20.448</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>200.7</v>
+        <v>440</v>
       </c>
       <c r="D30" t="n">
-        <v>239.34</v>
+        <v>500.34</v>
       </c>
       <c r="E30" t="n">
-        <v>13.276</v>
+        <v>2.156</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>164.92</v>
+        <v>348.36</v>
       </c>
       <c r="D31" t="n">
-        <v>213.6</v>
+        <v>409.26</v>
       </c>
       <c r="E31" t="n">
-        <v>17.72</v>
+        <v>10.164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>164.6</v>
+        <v>233.62</v>
       </c>
       <c r="D32" t="n">
-        <v>230.9</v>
+        <v>282.5</v>
       </c>
       <c r="E32" t="n">
-        <v>14.96</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>359.72</v>
+        <v>152.62</v>
       </c>
       <c r="D33" t="n">
-        <v>431.44</v>
+        <v>218.64</v>
       </c>
       <c r="E33" t="n">
-        <v>6.256</v>
+        <v>15.196</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>164.1</v>
+        <v>218.64</v>
       </c>
       <c r="D34" t="n">
-        <v>226</v>
+        <v>267.14</v>
       </c>
       <c r="E34" t="n">
-        <v>15.94</v>
+        <v>11.476</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>213.6</v>
+        <v>214.32</v>
       </c>
       <c r="D35" t="n">
-        <v>271.66</v>
+        <v>269.48</v>
       </c>
       <c r="E35" t="n">
-        <v>14.024</v>
+        <v>13.752</v>
       </c>
     </row>
     <row r="36">
@@ -1112,74 +1112,74 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>271.66</v>
+        <v>269.48</v>
       </c>
       <c r="D36" t="n">
-        <v>326.16</v>
+        <v>323.32</v>
       </c>
       <c r="E36" t="n">
-        <v>9.704000000000001</v>
+        <v>10.008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>239.34</v>
+        <v>250.1</v>
       </c>
       <c r="D37" t="n">
-        <v>302.8</v>
+        <v>297.34</v>
       </c>
       <c r="E37" t="n">
-        <v>10.54</v>
+        <v>9.076000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>326.16</v>
+        <v>297.34</v>
       </c>
       <c r="D38" t="n">
-        <v>377.66</v>
+        <v>345.16</v>
       </c>
       <c r="E38" t="n">
-        <v>7.184</v>
+        <v>6.424</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>230.9</v>
+        <v>267.14</v>
       </c>
       <c r="D39" t="n">
-        <v>310.8</v>
+        <v>322.12</v>
       </c>
       <c r="E39" t="n">
-        <v>11.54</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>377.66</v>
+        <v>323.32</v>
       </c>
       <c r="D40" t="n">
-        <v>441.02</v>
+        <v>373.2</v>
       </c>
       <c r="E40" t="n">
-        <v>4.448</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>226</v>
+        <v>409.26</v>
       </c>
       <c r="D41" t="n">
-        <v>290.9</v>
+        <v>479.18</v>
       </c>
       <c r="E41" t="n">
-        <v>11.08</v>
+        <v>7.252</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>431.44</v>
+        <v>282.5</v>
       </c>
       <c r="D42" t="n">
-        <v>490.62</v>
+        <v>350.2</v>
       </c>
       <c r="E42" t="n">
-        <v>3.968</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>290.9</v>
+        <v>373.2</v>
       </c>
       <c r="D43" t="n">
-        <v>373.9</v>
+        <v>451.76</v>
       </c>
       <c r="E43" t="n">
-        <v>6.4</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="44">
@@ -1264,226 +1264,207 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>373.9</v>
+        <v>479.18</v>
       </c>
       <c r="D44" t="n">
-        <v>426.38</v>
+        <v>544.88</v>
       </c>
       <c r="E44" t="n">
-        <v>2.292</v>
+        <v>3.292</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>302.8</v>
+        <v>345.16</v>
       </c>
       <c r="D45" t="n">
-        <v>350.2</v>
+        <v>411.66</v>
       </c>
       <c r="E45" t="n">
-        <v>7.42</v>
+        <v>4.384</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>426.38</v>
+        <v>350.2</v>
       </c>
       <c r="D46" t="n">
-        <v>513.5</v>
+        <v>408.66</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>7.464</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>513.5</v>
+        <v>322.12</v>
       </c>
       <c r="D47" t="n">
-        <v>571.62</v>
+        <v>397.02</v>
       </c>
       <c r="E47" t="n">
-        <v>27.348</v>
+        <v>3.228</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>571.62</v>
+        <v>397.02</v>
       </c>
       <c r="D48" t="n">
-        <v>613.08</v>
+        <v>474.82</v>
       </c>
       <c r="E48" t="n">
-        <v>24.332</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>350.2</v>
+        <v>474.82</v>
       </c>
       <c r="D49" t="n">
-        <v>405.62</v>
+        <v>574.0599999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>4.508</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>405.62</v>
+        <v>451.76</v>
       </c>
       <c r="D50" t="n">
-        <v>454.16</v>
+        <v>542.55</v>
       </c>
       <c r="E50" t="n">
-        <v>1.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>454.16</v>
+        <v>542.55</v>
       </c>
       <c r="D51" t="n">
-        <v>538.39</v>
+        <v>590.35</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>310.8</v>
+        <v>408.66</v>
       </c>
       <c r="D52" t="n">
-        <v>391.1</v>
+        <v>447.3</v>
       </c>
       <c r="E52" t="n">
-        <v>8.58</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>391.1</v>
+        <v>447.3</v>
       </c>
       <c r="D53" t="n">
-        <v>475.9</v>
+        <v>530.3200000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>5.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>441.02</v>
+        <v>530.3200000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>491.46</v>
+        <v>590.52</v>
       </c>
       <c r="E54" t="n">
-        <v>1.544</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>491.46</v>
-      </c>
-      <c r="D55" t="n">
-        <v>579.87</v>
-      </c>
-      <c r="E55" t="n">
-        <v>30</v>
+        <v>25.68</v>
       </c>
     </row>
   </sheetData>
